--- a/VioletVreath/tool/直角三角形同士の研究.xlsx
+++ b/VioletVreath/tool/直角三角形同士の研究.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="30" windowWidth="23970" windowHeight="16700"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="23976" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -169,6 +169,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -235,13 +240,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1623217</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1619249</xdr:rowOff>
@@ -321,11 +326,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="49000"/>
-          </a:schemeClr>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="49000"/>
+          </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -642,11 +645,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="49000"/>
-          </a:schemeClr>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="49000"/>
+          </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -953,13 +954,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>585106</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>81644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>943428</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>911680</xdr:rowOff>
@@ -1020,13 +1021,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>728433</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>261258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1086755</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1091294</xdr:rowOff>
@@ -1087,13 +1088,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1162048</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>195945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1520370</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1025981</xdr:rowOff>
@@ -1153,13 +1154,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>833663</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>12701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1191986</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>842737</xdr:rowOff>
@@ -1220,13 +1221,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>940706</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>65315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1299028</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>895351</xdr:rowOff>
@@ -1245,11 +1246,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="49000"/>
-          </a:schemeClr>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="49000"/>
+          </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1288,16 +1287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>966105</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>813705</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1524000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1324427</xdr:colOff>
+      <xdr:rowOff>1402080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1172027</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>730250</xdr:rowOff>
+      <xdr:rowOff>608330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1306,8 +1305,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14101534" y="4771571"/>
-          <a:ext cx="2000250" cy="830036"/>
+          <a:off x="13737225" y="4632960"/>
+          <a:ext cx="1973762" cy="821690"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -1347,13 +1346,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>674005</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>542471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1032328</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1372507</xdr:rowOff>
@@ -1414,13 +1413,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1044120</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1402443</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1325336</xdr:rowOff>
@@ -1481,13 +1480,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19958</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1618343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1247</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1613807</xdr:rowOff>
@@ -1542,13 +1541,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>527047</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>957943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>885370</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>164194</xdr:rowOff>
@@ -1601,16 +1600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>606875</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1003115</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1010559</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>965197</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>216810</xdr:rowOff>
+      <xdr:rowOff>187599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1361437</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1009290</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1619,8 +1618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="18668089" y="2634345"/>
-          <a:ext cx="2000251" cy="830036"/>
+          <a:off x="18772955" y="1803039"/>
+          <a:ext cx="1973762" cy="821691"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -1660,13 +1659,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>341991</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>419101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>700313</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1249137</xdr:rowOff>
@@ -1685,11 +1684,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="49000"/>
-          </a:schemeClr>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="49000"/>
+          </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1728,13 +1725,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>594177</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>598715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>952499</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1428751</xdr:rowOff>
@@ -1795,13 +1792,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>293004</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>605973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>651326</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1436009</xdr:rowOff>
@@ -1862,13 +1859,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1044118</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>304802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1402441</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1134838</xdr:rowOff>
@@ -1921,13 +1918,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>761090</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>475345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1119412</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1305381</xdr:rowOff>
@@ -1988,13 +1985,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>637719</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>433615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>996042</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1263651</xdr:rowOff>
@@ -2055,13 +2052,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>790119</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>413659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1148441</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1243695</xdr:rowOff>
@@ -2122,13 +2119,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1160234</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1445986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1518556</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>652237</xdr:rowOff>
@@ -2747,13 +2744,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>216805</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>275774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>575128</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1105810</xdr:rowOff>
@@ -2814,13 +2811,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>416377</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>257630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1087666</xdr:rowOff>
@@ -2839,11 +2836,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="49000"/>
-          </a:schemeClr>
+          <a:srgbClr val="00B0F0">
+            <a:alpha val="49000"/>
+          </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2875,26 +2870,203 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>780144</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>132444</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1427845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>885372</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>208645</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>619581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="直角三角形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="27335844" y="3066145"/>
+          <a:ext cx="2353128" cy="830036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1533072</xdr:colOff>
+      <xdr:colOff>990234</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1209402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>716279</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1531620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="直角三角形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="28193634" y="2847702"/>
+          <a:ext cx="1326245" cy="3598818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1053557</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1396276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1339307</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1038681</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="直角三角形 52"/>
+      <xdr:rowOff>602527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="直角三角形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4284437" y="3011716"/>
+          <a:ext cx="1901190" cy="821691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1516378</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1455420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="直角三角形 48"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="27051001" y="3456216"/>
-          <a:ext cx="2394857" cy="830036"/>
+          <a:off x="27736799" y="3314700"/>
+          <a:ext cx="982979" cy="1417320"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -2936,7 +3108,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3010,6 +3182,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3044,6 +3217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3219,19 +3393,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.453125" defaultRowHeight="128" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="127.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="128" customHeight="1">
+    <row r="1" spans="1:20" ht="127.95" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3253,7 +3427,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="128" customHeight="1">
+    <row r="2" spans="1:20" ht="127.95" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3261,12 +3435,12 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -3275,21 +3449,21 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="128" customHeight="1">
+    <row r="3" spans="1:20" ht="127.95" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="4"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="4"/>
@@ -3297,21 +3471,21 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="128" customHeight="1">
+    <row r="4" spans="1:20" ht="127.95" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="4"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="4"/>
@@ -3319,7 +3493,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="128" customHeight="1">
+    <row r="5" spans="1:20" ht="127.95" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3341,18 +3515,18 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="128" customHeight="1">
-      <c r="I6" s="2" t="s">
+    <row r="6" spans="1:20" ht="127.95" customHeight="1">
+      <c r="M6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="128" customHeight="1">
-      <c r="J7" s="2" t="s">
+    <row r="7" spans="1:20" ht="127.95" customHeight="1">
+      <c r="N7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="128" customHeight="1">
-      <c r="J8" s="3" t="s">
+    <row r="8" spans="1:20" ht="127.95" customHeight="1">
+      <c r="N8" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3365,12 +3539,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3378,12 +3552,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VioletVreath/tool/直角三角形同士の研究.xlsx
+++ b/VioletVreath/tool/直角三角形同士の研究.xlsx
@@ -112,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,13 +135,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +180,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2184,10 +2204,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1623217</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1619249</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7777</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2196,8 +2216,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27912786" y="3247571"/>
-          <a:ext cx="1623217" cy="1619249"/>
+          <a:off x="27203400" y="3238500"/>
+          <a:ext cx="1607977" cy="1619249"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -2239,16 +2259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>662215</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1195615</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1385208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>489858</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1415143</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1319894</xdr:rowOff>
+      <xdr:rowOff>576944</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2257,8 +2277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="26933072" y="2113644"/>
-          <a:ext cx="2394857" cy="830036"/>
+          <a:off x="25198615" y="1385208"/>
+          <a:ext cx="2353128" cy="810986"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -2298,16 +2318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>399143</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>989693</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>653143</xdr:rowOff>
+      <xdr:rowOff>1148443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1152072</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1483179</xdr:rowOff>
+      <xdr:colOff>142422</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>359229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2316,8 +2336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="28311929" y="2276929"/>
-          <a:ext cx="2394857" cy="830036"/>
+          <a:off x="26592893" y="2767693"/>
+          <a:ext cx="2353129" cy="830036"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -2358,15 +2378,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>707570</xdr:colOff>
+      <xdr:colOff>193220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1367971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>946149</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>453571</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1460499</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1283607</xdr:rowOff>
+      <xdr:rowOff>578757</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2375,8 +2395,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="28620356" y="3701142"/>
-          <a:ext cx="2394857" cy="830036"/>
+          <a:off x="27396620" y="2987221"/>
+          <a:ext cx="2353129" cy="830036"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -2870,16 +2890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>132444</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1427845</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>885372</xdr:colOff>
+      <xdr:colOff>1180194</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>619581</xdr:rowOff>
+      <xdr:rowOff>1275445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>332922</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>467181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2888,8 +2908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="27335844" y="3066145"/>
-          <a:ext cx="2353128" cy="830036"/>
+          <a:off x="29983794" y="4513945"/>
+          <a:ext cx="2353128" cy="810986"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -2929,16 +2949,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>990234</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495297</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1209402</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>716279</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1531620</xdr:rowOff>
+      <xdr:rowOff>1524000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2947,8 +2967,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="28193634" y="2847702"/>
-          <a:ext cx="1326245" cy="3598818"/>
+          <a:off x="26098497" y="419100"/>
+          <a:ext cx="6553202" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -3047,26 +3067,769 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1543050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1325878</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1341120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="直角三角形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="32346899" y="4781550"/>
+          <a:ext cx="982979" cy="1417320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1623217</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1619249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="直角三角形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27203400" y="3276600"/>
+          <a:ext cx="1607977" cy="1619249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>745672</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>394606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>386443</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1265464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="直角三角形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="35950072" y="394606"/>
+          <a:ext cx="1240971" cy="2490108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>276860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1346561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1517831</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>601979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="直角三角形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="37431980" y="2962001"/>
+          <a:ext cx="1240971" cy="2486298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1324427</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>529769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>965198</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1400627</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="直角三角形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="38129027" y="3806369"/>
+          <a:ext cx="1240971" cy="2509158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>92528</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>308427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1333499</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1179285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="直角三角形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="38497328" y="5223327"/>
+          <a:ext cx="1240971" cy="2509158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>255815</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>879928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1496786</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="直角三角形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="37060415" y="5794828"/>
+          <a:ext cx="1240971" cy="2553033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>462641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1088571</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1333499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="直角三角形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="35052000" y="5377541"/>
+          <a:ext cx="1240971" cy="2509158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1538514</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1106713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1179285</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>374162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="直角三角形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="35142714" y="4383313"/>
+          <a:ext cx="1240971" cy="2544049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219528</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1088570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1460499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>365006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="直角三角形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="35423928" y="2726870"/>
+          <a:ext cx="1240971" cy="2553036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
+      <xdr:colOff>800099</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1485900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123371</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1516378</xdr:colOff>
+      <xdr:rowOff>1466850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="直角三角形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="28003499" y="3105150"/>
+          <a:ext cx="923472" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>655319</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>251460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>22858</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1455420</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="直角三角形 48"/>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="直角三角形 63"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="27736799" y="3314700"/>
+          <a:off x="37810439" y="1866900"/>
           <a:ext cx="982979" cy="1417320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="49000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1575161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1312091</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>830579</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="直角三角形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="38841680" y="3190601"/>
+          <a:ext cx="1240971" cy="2486298"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -3394,10 +4157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="127.95" customHeight="1"/>
@@ -3405,7 +4168,7 @@
     <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="127.95" customHeight="1">
+    <row r="1" spans="1:26" ht="127.95" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3426,8 +4189,13 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="127.95" customHeight="1">
+    <row r="2" spans="1:26" ht="127.95" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3445,11 +4213,16 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="7"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="127.95" customHeight="1">
+    <row r="3" spans="1:26" ht="127.95" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
@@ -3468,10 +4241,15 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="7"/>
       <c r="T3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="127.95" customHeight="1">
+    <row r="4" spans="1:26" ht="127.95" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
@@ -3492,8 +4270,13 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="127.95" customHeight="1">
+    <row r="5" spans="1:26" ht="127.95" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3514,18 +4297,23 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="127.95" customHeight="1">
+    <row r="6" spans="1:26" ht="127.95" customHeight="1">
       <c r="M6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="127.95" customHeight="1">
+    <row r="7" spans="1:26" ht="127.95" customHeight="1">
       <c r="N7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="127.95" customHeight="1">
+    <row r="8" spans="1:26" ht="127.95" customHeight="1">
       <c r="N8" s="3" t="s">
         <v>0</v>
       </c>
@@ -3542,7 +4330,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
